--- a/trunk/FASE 2/OBSERVACIONES/Observaciones - Control de cambios.xlsx
+++ b/trunk/FASE 2/OBSERVACIONES/Observaciones - Control de cambios.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="60">
   <si>
     <t>Fecha</t>
   </si>
@@ -2160,6 +2160,38 @@
   </si>
   <si>
     <t>No se ha podido probar</t>
+  </si>
+  <si>
+    <r>
+      <t>Administrar Tipo de Ensayo -</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Registrar</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Tomando como referencia el caso de prueba anterior. En la pantalla de detalle, deselecciono el Promedio Ponderado. Pulso en el botón </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Modificar.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -2287,14 +2319,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2608,15 +2640,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
     </row>
     <row r="2" spans="1:7" ht="18.75" customHeight="1">
       <c r="A2" s="1"/>
@@ -2733,15 +2765,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
     </row>
     <row r="2" spans="1:7" ht="18.75" customHeight="1">
       <c r="A2" s="1"/>
@@ -2920,15 +2952,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="13" t="s">
@@ -3016,7 +3048,7 @@
       <c r="C6" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="15" t="s">
         <v>37</v>
       </c>
       <c r="E6" s="1" t="s">
@@ -3134,10 +3166,10 @@
       <c r="D11" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="E11" s="17" t="s">
+      <c r="E11" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="F11" s="17" t="s">
+      <c r="F11" s="16" t="s">
         <v>12</v>
       </c>
       <c r="G11" s="6" t="s">
@@ -3155,10 +3187,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -3173,13 +3205,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="15"/>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
+      <c r="A1" s="17"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
     </row>
     <row r="2" spans="1:7" ht="18.75" customHeight="1">
       <c r="A2" s="1"/>
@@ -3210,7 +3242,7 @@
         <v>9</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D3" s="11" t="s">
         <v>56</v>
@@ -3222,6 +3254,29 @@
         <v>12</v>
       </c>
       <c r="G3" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="45">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="6" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3230,5 +3285,6 @@
     <mergeCell ref="A1:G1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="131" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/trunk/FASE 2/OBSERVACIONES/Observaciones - Control de cambios.xlsx
+++ b/trunk/FASE 2/OBSERVACIONES/Observaciones - Control de cambios.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="5535" yWindow="180" windowWidth="14880" windowHeight="7815" activeTab="3"/>
+    <workbookView xWindow="5535" yWindow="180" windowWidth="14880" windowHeight="7815"/>
   </bookViews>
   <sheets>
     <sheet name="Admi.produc.cod.material" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="59">
   <si>
     <t>Fecha</t>
   </si>
@@ -29,9 +29,6 @@
   </si>
   <si>
     <t>Observaciones</t>
-  </si>
-  <si>
-    <t>Resultado</t>
   </si>
   <si>
     <t>Estado</t>
@@ -2624,8 +2621,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2641,7 +2638,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B1" s="17"/>
       <c r="C1" s="17"/>
@@ -2665,10 +2662,10 @@
         <v>3</v>
       </c>
       <c r="F2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>4</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:7" s="5" customFormat="1" ht="75">
@@ -2676,20 +2673,20 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="75">
@@ -2697,22 +2694,22 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D4" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>14</v>
-      </c>
       <c r="F4" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="90">
@@ -2720,20 +2717,20 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E5" s="12"/>
       <c r="F5" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -2749,8 +2746,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2766,7 +2763,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B1" s="17"/>
       <c r="C1" s="17"/>
@@ -2790,10 +2787,10 @@
         <v>3</v>
       </c>
       <c r="F2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>4</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:7" s="5" customFormat="1" ht="60">
@@ -2801,20 +2798,20 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E3" s="9"/>
       <c r="F3" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="105">
@@ -2822,22 +2819,22 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D4" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>21</v>
-      </c>
       <c r="F4" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="105">
@@ -2845,20 +2842,20 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5" s="12"/>
       <c r="F5" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="105">
@@ -2866,20 +2863,20 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E6" s="12"/>
       <c r="F6" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="105">
@@ -2887,20 +2884,20 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E7" s="12"/>
       <c r="F7" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="135">
@@ -2908,20 +2905,20 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E8" s="12"/>
       <c r="F8" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -2936,7 +2933,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
@@ -2953,7 +2950,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B1" s="17"/>
       <c r="C1" s="17"/>
@@ -2964,7 +2961,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B2" s="13"/>
       <c r="C2" s="13"/>
@@ -2988,10 +2985,10 @@
         <v>3</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="5" customFormat="1" ht="45">
@@ -2999,20 +2996,20 @@
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E4" s="9"/>
       <c r="F4" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="5" customFormat="1" ht="60">
@@ -3020,22 +3017,22 @@
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="5" customFormat="1" ht="60">
@@ -3043,22 +3040,22 @@
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D6" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>38</v>
-      </c>
       <c r="G6" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="75">
@@ -3066,22 +3063,22 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D7" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="F7" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="60">
@@ -3089,22 +3086,22 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D8" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>41</v>
-      </c>
       <c r="G8" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="75">
@@ -3112,22 +3109,22 @@
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="75">
@@ -3135,22 +3132,22 @@
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D10" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>44</v>
-      </c>
       <c r="G10" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="75">
@@ -3158,22 +3155,22 @@
         <v>8</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D11" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="E11" s="16" t="s">
-        <v>46</v>
-      </c>
       <c r="F11" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -3189,8 +3186,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -3228,10 +3225,10 @@
         <v>3</v>
       </c>
       <c r="F2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>4</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="315">
@@ -3239,22 +3236,22 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D3" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="F3" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="45">
@@ -3262,22 +3259,22 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
